--- a/medicine/Handicap/À_vue_d'œil/À_vue_d'œil.xlsx
+++ b/medicine/Handicap/À_vue_d'œil/À_vue_d'œil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%80_vue_d%27%C5%93il</t>
+          <t>À_vue_d'œil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 À vue d’œil est une maison d'édition française fondée en 1997 par Lucie Bressy, qui réédite des livres, sélectionnés dans l'actualité littéraire, en grands caractères. 
 Les principaux lecteurs sont les malvoyants, les personnes âgées, mais également des lecteurs de tous âges qui trouvent plus agréable de lire en gros caractères.
 Le catalogue compte plus de 450 titres. Tous les genres littéraires sont abordés : de la biographie aux policiers en passant par les romans régionaux.
-Cet éditeur appartient à la société éponyme[1].
-Le 18 février 2017 la direction est confiée à Jacques Gommez président de la société d'édition Ysceo[2] et dirigeant de Bookdesigner[3] et des éditions Tohu Bohu[4].
+Cet éditeur appartient à la société éponyme.
+Le 18 février 2017 la direction est confiée à Jacques Gommez président de la société d'édition Ysceo et dirigeant de Bookdesigner et des éditions Tohu Bohu.
 </t>
         </is>
       </c>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%80_vue_d%27%C5%93il</t>
+          <t>À_vue_d'œil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Collection 16
 Collection 18
